--- a/in.royalsundaram/data/RSTW.xlsx
+++ b/in.royalsundaram/data/RSTW.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F22A27-43DF-4776-8AD0-D01370706C93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18666C-B49F-44D4-A375-04873186F92D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="1476" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="RSTW" sheetId="2" r:id="rId2"/>
+    <sheet name="TWOCR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -57,12 +58,51 @@
   </si>
   <si>
     <t>KA23BD3545</t>
+  </si>
+  <si>
+    <t>kan555</t>
+  </si>
+  <si>
+    <t>Manufacturing Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration City </t>
+  </si>
+  <si>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>Policy End Date</t>
+  </si>
+  <si>
+    <t>Manufacturer's Name</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>BENGALURU</t>
+  </si>
+  <si>
+    <t>Mar 29, 2019</t>
+  </si>
+  <si>
+    <t>Mar 31, 2019</t>
+  </si>
+  <si>
+    <t>Activa</t>
+  </si>
+  <si>
+    <t>Activa Std 125-2 Seater</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-24009]mmmm\ dd\,\ yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,9 +487,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -482,7 +523,82 @@
         <v>9955666661</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>12785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB13BF-D881-46DE-92A9-8B516CE5E694}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/in.royalsundaram/data/RSTW.xlsx
+++ b/in.royalsundaram/data/RSTW.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18666C-B49F-44D4-A375-04873186F92D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC48C5-5E13-44D7-886E-2146296039EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="RSTW" sheetId="2" r:id="rId2"/>
     <sheet name="TWOCR" sheetId="3" r:id="rId3"/>
+    <sheet name="TWOCR1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -94,6 +95,18 @@
   </si>
   <si>
     <t>Activa Std 125-2 Seater</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Akash@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -540,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB13BF-D881-46DE-92A9-8B516CE5E694}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -601,4 +614,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA9411-5D3C-4D7F-8221-08B0164441A9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8C706983-C587-43B4-B131-30840401553C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>